--- a/biology/Zoologie/Coryllis_de_Camiguin/Coryllis_de_Camiguin.xlsx
+++ b/biology/Zoologie/Coryllis_de_Camiguin/Coryllis_de_Camiguin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Loriculus camiguinensis
 Le Coryllis de Camiguin (Loriculus camiguinensis) est une espèce d'oiseaux de la famille des Psittacidae endémique de l'île de Camiguin (d), aux Philippines.
@@ -512,7 +524,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est endémique de l'île de Camiguin aux Philippines.
 </t>
@@ -543,7 +557,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce ne comprend aucune sous-espèce.
 </t>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom spécifique, composé de camiguin et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte. 
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) José G. Tello, Jacob F. Degner, John M. Bates et David E. Willard, « A New Species of Hanging-Parrot (Aves: Psittacidae: Loriculus) from Camiguin Island, Philippines », Fieldiana: Zoology, Chicago, FMNH, vol. 106,‎ 5 avril 2006, p. 49-57 (ISSN 0015-0754 et 2162-4291, OCLC 1426915, DOI 10.3158/0015-0754(2006)106[49:ANSOHA]2.0.CO;2, lire en ligne)</t>
         </is>
